--- a/product and prices.xlsx
+++ b/product and prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ram tech\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A358A8AB-4BF4-494C-B141-E4B6847BF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39723592-4A58-4122-88EB-1CC1E5398A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Your_Price</t>
   </si>
@@ -54,9 +65,6 @@
     <t>https://alfrensia.com/ar/product/gigabyte-x870-gaming-x-wifi-7-am5-motherboard/#TRPLINKPROCESSED</t>
   </si>
   <si>
-    <t>https://alfrensia.com/ar/product/gigabyte-z890-eagle-wifi-7-ddr5-motherboard/#TRPLINKPROCESSED</t>
-  </si>
-  <si>
     <t>https://elbadrgroupeg.store/gigabyte-x870-gaming-x-wifi7?search=GIGABYTE%20X870%20Gaming%20X%20WIFI7</t>
   </si>
   <si>
@@ -85,6 +93,117 @@
   </si>
   <si>
     <t>MB_GIGABYTE Z890 EAGLE WIFI7</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE Z790 Gaming X AX</t>
+  </si>
+  <si>
+    <t>14050.73 EGP</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE Z790 Eagle AX</t>
+  </si>
+  <si>
+    <t>MB_Gigabyte Z790D</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE B760 GAMING X</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE B760 DS3H AX DDR4</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE B760 DS3H</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE B860M Gaming  WIFI6</t>
+  </si>
+  <si>
+    <t>MB_Gigabyte B760M H</t>
+  </si>
+  <si>
+    <t>MB_MSI PRO B760M-P DDR4</t>
+  </si>
+  <si>
+    <t>MB_MSI PRO B760M-E</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE B650M H</t>
+  </si>
+  <si>
+    <t>MB_Gigabyte B550M K</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE B450 AORUS Elite V2</t>
+  </si>
+  <si>
+    <t>MB_Gigabyte A620M H</t>
+  </si>
+  <si>
+    <t>MB_MSI B450M PRO-VDH AM4 AMD MAX</t>
+  </si>
+  <si>
+    <t>MB_GIGABYTE B450M K</t>
+  </si>
+  <si>
+    <t>11730.19 EGP</t>
+  </si>
+  <si>
+    <t>10895.30 EGP</t>
+  </si>
+  <si>
+    <t>8478.89 EGP</t>
+  </si>
+  <si>
+    <t>8262.13 EGP</t>
+  </si>
+  <si>
+    <t>8011.51 EGP</t>
+  </si>
+  <si>
+    <t>7980.61 EGP</t>
+  </si>
+  <si>
+    <t>6517.90 EGP</t>
+  </si>
+  <si>
+    <t>6046.17 EGP</t>
+  </si>
+  <si>
+    <t>5814.09 EGP</t>
+  </si>
+  <si>
+    <t>5737.59 EGP</t>
+  </si>
+  <si>
+    <t>4985.33 EGP</t>
+  </si>
+  <si>
+    <t>4893.53 EGP</t>
+  </si>
+  <si>
+    <t>4819.58 EGP</t>
+  </si>
+  <si>
+    <t>4335.07 EGP</t>
+  </si>
+  <si>
+    <t>3993.36 EGP</t>
+  </si>
+  <si>
+    <t>https://alfrensia.com/ar/product/gigabyte-b760-gaming-x-ddr5-motherboard/</t>
+  </si>
+  <si>
+    <t>https://alfrensia.com/ar/product/gigabyte-b760-ds3h-ax-ddr4-motherboard/</t>
+  </si>
+  <si>
+    <t>https://alfrensia.com/ar/product/gigabyte-b650m-h-motherboard/</t>
+  </si>
+  <si>
+    <t>https://alfrensia.com/ar/product/gigabyte-a620m-h-ddr5-motherboard/</t>
+  </si>
+  <si>
+    <t>https://alfrensia.com/ar/product/gigabyte-z890-eagle-wifi-7-ddr5-motherboard/#TRPLINKPROCESSED   (N/A)</t>
   </si>
 </sst>
 </file>
@@ -413,16 +532,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="98" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
@@ -443,21 +561,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -466,15 +584,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -483,35 +601,174 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A4" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="MB_*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A72A0916-D5DD-4B02-B0F2-A5777837D925}"/>
     <hyperlink ref="C3" r:id="rId2" location="TRPLINKPROCESSED" xr:uid="{37F76BB6-601F-405C-9C1B-11B8ED307278}"/>
-    <hyperlink ref="C4" r:id="rId3" location="TRPLINKPROCESSED" xr:uid="{A9EC3A81-CC57-4F31-9B40-E19DC4814551}"/>
+    <hyperlink ref="C4" r:id="rId3" location="TRPLINKPROCESSED   (N/A)" xr:uid="{A9EC3A81-CC57-4F31-9B40-E19DC4814551}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{98CB8CE7-78A3-4F10-BD23-E1F52B4CA116}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{5D70A4AF-6542-4167-A766-C40630191261}"/>
     <hyperlink ref="G2" r:id="rId6" xr:uid="{412C2837-AEE3-4BD7-9C99-4DB21A63C771}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{1A1B772B-A0E8-4048-BB68-04BACEBE52CE}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{C5FFE90F-B9E9-45D6-8351-F0BF266A2477}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{11B25D2B-6DED-4BDB-8D58-FC762D6D49AC}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{CF932E2E-CA04-4990-961C-DBAD8BC986B6}"/>
+    <hyperlink ref="A2" r:id="rId11" xr:uid="{07258D3B-9EB0-40B7-B3B0-15CD3E140D2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
